--- a/docs/db-normalisatie.xlsx
+++ b/docs/db-normalisatie.xlsx
@@ -5,26 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Syntra\eindproef\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maurits\Documents\Git\eindproef-syntra\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80852E46-2403-49DD-A534-8D612F49188C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB3B5FB-01B7-40AA-9464-5032C2251870}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2724" yWindow="2292" windowWidth="16716" windowHeight="9192" xr2:uid="{F2A5BA2C-B524-4699-A48F-FB0C06F9B7C1}"/>
+    <workbookView xWindow="-19125" yWindow="5475" windowWidth="13620" windowHeight="10545" xr2:uid="{F2A5BA2C-B524-4699-A48F-FB0C06F9B7C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -93,9 +87,6 @@
     <t>postal_code</t>
   </si>
   <si>
-    <t>Interested projects</t>
-  </si>
-  <si>
     <t>project_id</t>
   </si>
   <si>
@@ -121,6 +112,9 @@
   </si>
   <si>
     <t>reg_time_stamp</t>
+  </si>
+  <si>
+    <t>Applied projects</t>
   </si>
 </sst>
 </file>
@@ -497,20 +491,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C31620-E9B3-4D86-8007-A9750268155A}">
   <dimension ref="C3:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,10 +518,10 @@
         <v>8</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -544,7 +538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -558,10 +552,10 @@
         <v>19</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -572,10 +566,10 @@
         <v>6</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -586,18 +580,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -605,7 +599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -613,37 +607,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/db-normalisatie.xlsx
+++ b/docs/db-normalisatie.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maurits\Documents\Git\eindproef-syntra\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB3B5FB-01B7-40AA-9464-5032C2251870}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-19125" yWindow="5475" windowWidth="13620" windowHeight="10545" xr2:uid="{F2A5BA2C-B524-4699-A48F-FB0C06F9B7C1}"/>
+    <workbookView xWindow="-19128" yWindow="5472" windowWidth="13620" windowHeight="10548"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Users</t>
   </si>
@@ -115,12 +109,42 @@
   </si>
   <si>
     <t>Applied projects</t>
+  </si>
+  <si>
+    <t>looking_for</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>price/h</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>min_days/week</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,7 +201,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -235,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -287,7 +311,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -481,27 +505,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C31620-E9B3-4D86-8007-A9750268155A}">
-  <dimension ref="C3:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -521,7 +545,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -538,7 +562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -555,7 +579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -569,7 +593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -580,7 +604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -591,53 +615,109 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>28</v>
       </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
       <c r="G11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/db-normalisatie.xlsx
+++ b/docs/db-normalisatie.xlsx
@@ -505,7 +505,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/docs/db-normalisatie.xlsx
+++ b/docs/db-normalisatie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-19128" yWindow="5472" windowWidth="13620" windowHeight="10548"/>
+    <workbookView xWindow="-19125" yWindow="5475" windowWidth="13620" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>subject</t>
-  </si>
-  <si>
     <t>Municipalities</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>end_date</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -515,17 +515,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -539,13 +539,13 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="3:11" ht="15" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -562,26 +562,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -590,134 +590,134 @@
         <v>6</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" ht="15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" ht="15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
         <v>31</v>
       </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
         <v>32</v>
       </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="3:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
+    <row r="21" spans="3:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+    <row r="22" spans="3:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
+    <row r="23" spans="3:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
